--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
@@ -549,10 +549,10 @@
         <v>0.012661</v>
       </c>
       <c r="I2">
-        <v>0.03890646438542014</v>
+        <v>0.01763551004176611</v>
       </c>
       <c r="J2">
-        <v>0.05724607538161036</v>
+        <v>0.02622204548937739</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N2">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O2">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P2">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q2">
-        <v>0.0149980116935</v>
+        <v>0.01813239628566667</v>
       </c>
       <c r="R2">
-        <v>0.08998807016100001</v>
+        <v>0.108794377714</v>
       </c>
       <c r="S2">
-        <v>0.002396240909286448</v>
+        <v>0.001540837289896502</v>
       </c>
       <c r="T2">
-        <v>0.002728286131502103</v>
+        <v>0.001803196926558768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.012661</v>
       </c>
       <c r="I3">
-        <v>0.03890646438542014</v>
+        <v>0.01763551004176611</v>
       </c>
       <c r="J3">
-        <v>0.05724607538161036</v>
+        <v>0.02622204548937739</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>39.975685</v>
       </c>
       <c r="O3">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P3">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q3">
         <v>0.05623690530944445</v>
@@ -641,10 +641,10 @@
         <v>0.506132147785</v>
       </c>
       <c r="S3">
-        <v>0.008985002536873708</v>
+        <v>0.004778845520692009</v>
       </c>
       <c r="T3">
-        <v>0.01534507093038702</v>
+        <v>0.008388815235633788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>0.012661</v>
       </c>
       <c r="I4">
-        <v>0.03890646438542014</v>
+        <v>0.01763551004176611</v>
       </c>
       <c r="J4">
-        <v>0.05724607538161036</v>
+        <v>0.02622204548937739</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N4">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O4">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P4">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q4">
-        <v>0.02961805033366667</v>
+        <v>0.02908016463</v>
       </c>
       <c r="R4">
-        <v>0.266562453003</v>
+        <v>0.26172148167</v>
       </c>
       <c r="S4">
-        <v>0.004732092847586977</v>
+        <v>0.002471146193382784</v>
       </c>
       <c r="T4">
-        <v>0.008081722859553591</v>
+        <v>0.004337865441929181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>0.012661</v>
       </c>
       <c r="I5">
-        <v>0.03890646438542014</v>
+        <v>0.01763551004176611</v>
       </c>
       <c r="J5">
-        <v>0.05724607538161036</v>
+        <v>0.02622204548937739</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N5">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O5">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P5">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q5">
-        <v>0.08615625016350001</v>
+        <v>0.07710385040050001</v>
       </c>
       <c r="R5">
-        <v>0.516937500981</v>
+        <v>0.462623102403</v>
       </c>
       <c r="S5">
-        <v>0.01376523338236694</v>
+        <v>0.006552056662560621</v>
       </c>
       <c r="T5">
-        <v>0.01567267096912421</v>
+        <v>0.007667680756455342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.012661</v>
       </c>
       <c r="I6">
-        <v>0.03890646438542014</v>
+        <v>0.01763551004176611</v>
       </c>
       <c r="J6">
-        <v>0.05724607538161036</v>
+        <v>0.02622204548937739</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N6">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O6">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P6">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q6">
-        <v>0.010156882098</v>
+        <v>0.005720923494000002</v>
       </c>
       <c r="R6">
-        <v>0.09141193888200001</v>
+        <v>0.05148831144600001</v>
       </c>
       <c r="S6">
-        <v>0.001622770863992244</v>
+        <v>0.0004861471210602372</v>
       </c>
       <c r="T6">
-        <v>0.002771455423583083</v>
+        <v>0.0008533856887089896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.012661</v>
       </c>
       <c r="I7">
-        <v>0.03890646438542014</v>
+        <v>0.01763551004176611</v>
       </c>
       <c r="J7">
-        <v>0.05724607538161036</v>
+        <v>0.02622204548937739</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N7">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O7">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P7">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q7">
-        <v>0.04634848424188889</v>
+        <v>0.02125841688055556</v>
       </c>
       <c r="R7">
-        <v>0.417136358177</v>
+        <v>0.191325751925</v>
       </c>
       <c r="S7">
-        <v>0.007405123845313825</v>
+        <v>0.001806477254173962</v>
       </c>
       <c r="T7">
-        <v>0.01264686906746035</v>
+        <v>0.003171101440091328</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1042535</v>
+        <v>0.2350885</v>
       </c>
       <c r="H8">
-        <v>0.208507</v>
+        <v>0.470177</v>
       </c>
       <c r="I8">
-        <v>0.9610935356145798</v>
+        <v>0.9823644899582339</v>
       </c>
       <c r="J8">
-        <v>0.9427539246183896</v>
+        <v>0.9737779545106227</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N8">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O8">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P8">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q8">
-        <v>0.37049092775175</v>
+        <v>1.0100429296745</v>
       </c>
       <c r="R8">
-        <v>1.481963711007</v>
+        <v>4.040171718698</v>
       </c>
       <c r="S8">
-        <v>0.05919354750089913</v>
+        <v>0.08583045428303461</v>
       </c>
       <c r="T8">
-        <v>0.04493063394843291</v>
+        <v>0.06696325103377471</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1042535</v>
+        <v>0.2350885</v>
       </c>
       <c r="H9">
-        <v>0.208507</v>
+        <v>0.470177</v>
       </c>
       <c r="I9">
-        <v>0.9610935356145798</v>
+        <v>0.9823644899582339</v>
       </c>
       <c r="J9">
-        <v>0.9427539246183896</v>
+        <v>0.9737779545106227</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>39.975685</v>
       </c>
       <c r="O9">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P9">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q9">
-        <v>1.389201692049167</v>
+        <v>3.132607941040833</v>
       </c>
       <c r="R9">
-        <v>8.335210152295</v>
+        <v>18.795647646245</v>
       </c>
       <c r="S9">
-        <v>0.2219535491615108</v>
+        <v>0.2661997374278185</v>
       </c>
       <c r="T9">
-        <v>0.2527094782783513</v>
+        <v>0.3115257863553105</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1042535</v>
+        <v>0.2350885</v>
       </c>
       <c r="H10">
-        <v>0.208507</v>
+        <v>0.470177</v>
       </c>
       <c r="I10">
-        <v>0.9610935356145798</v>
+        <v>0.9823644899582339</v>
       </c>
       <c r="J10">
-        <v>0.9427539246183896</v>
+        <v>0.9737779545106227</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N10">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O10">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P10">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q10">
-        <v>0.7316449120435</v>
+        <v>1.619874958365</v>
       </c>
       <c r="R10">
-        <v>4.389869472261</v>
+        <v>9.71924975019</v>
       </c>
       <c r="S10">
-        <v>0.1168953262031219</v>
+        <v>0.1376521724705162</v>
       </c>
       <c r="T10">
-        <v>0.1330934198149388</v>
+        <v>0.1610903214509072</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1042535</v>
+        <v>0.2350885</v>
       </c>
       <c r="H11">
-        <v>0.208507</v>
+        <v>0.470177</v>
       </c>
       <c r="I11">
-        <v>0.9610935356145798</v>
+        <v>0.9823644899582339</v>
       </c>
       <c r="J11">
-        <v>0.9427539246183896</v>
+        <v>0.9737779545106227</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N11">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O11">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P11">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q11">
-        <v>2.12828938308675</v>
+        <v>4.29497556311775</v>
       </c>
       <c r="R11">
-        <v>8.513157532347</v>
+        <v>17.179902252471</v>
       </c>
       <c r="S11">
-        <v>0.3400380124228556</v>
+        <v>0.3649742925637112</v>
       </c>
       <c r="T11">
-        <v>0.258104541960286</v>
+        <v>0.2847458443272967</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1042535</v>
+        <v>0.2350885</v>
       </c>
       <c r="H12">
-        <v>0.208507</v>
+        <v>0.470177</v>
       </c>
       <c r="I12">
-        <v>0.9610935356145798</v>
+        <v>0.9823644899582339</v>
       </c>
       <c r="J12">
-        <v>0.9427539246183896</v>
+        <v>0.9737779545106227</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N12">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O12">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P12">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q12">
-        <v>0.250902102789</v>
+        <v>0.318677037237</v>
       </c>
       <c r="R12">
-        <v>1.505412616734</v>
+        <v>1.912062223422</v>
       </c>
       <c r="S12">
-        <v>0.04008677251462333</v>
+        <v>0.02708023002986405</v>
       </c>
       <c r="T12">
-        <v>0.04564156512163636</v>
+        <v>0.03169120314036226</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1042535</v>
+        <v>0.2350885</v>
       </c>
       <c r="H13">
-        <v>0.208507</v>
+        <v>0.470177</v>
       </c>
       <c r="I13">
-        <v>0.9610935356145798</v>
+        <v>0.9823644899582339</v>
       </c>
       <c r="J13">
-        <v>0.9427539246183896</v>
+        <v>0.9737779545106227</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N13">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O13">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P13">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q13">
-        <v>1.144931293399833</v>
+        <v>1.184174078704167</v>
       </c>
       <c r="R13">
-        <v>6.869587760399</v>
+        <v>7.105044472225001</v>
       </c>
       <c r="S13">
-        <v>0.1829263278115689</v>
+        <v>0.1006276031832894</v>
       </c>
       <c r="T13">
-        <v>0.2082742854947441</v>
+        <v>0.1177615482029713</v>
       </c>
     </row>
   </sheetData>
